--- a/output/ejecucion_1/results/base1_ci_results_training.xlsx
+++ b/output/ejecucion_1/results/base1_ci_results_training.xlsx
@@ -468,16 +468,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.912</v>
+        <v>0.902</v>
       </c>
       <c r="C2">
-        <v>0.979</v>
+        <v>0.975</v>
       </c>
       <c r="D2">
-        <v>0.9350000000000001</v>
+        <v>0.888</v>
       </c>
       <c r="E2">
-        <v>0.801</v>
+        <v>0.778</v>
       </c>
       <c r="F2">
         <v>0.551</v>
@@ -509,7 +509,7 @@
         <v>0.658</v>
       </c>
       <c r="D3">
-        <v>0.758</v>
+        <v>0.629</v>
       </c>
       <c r="E3">
         <v>0.263</v>
@@ -544,7 +544,7 @@
         <v>0.963</v>
       </c>
       <c r="D4">
-        <v>0.92</v>
+        <v>0.881</v>
       </c>
       <c r="E4">
         <v>0.762</v>
@@ -579,7 +579,7 @@
         <v>0.975</v>
       </c>
       <c r="D5">
-        <v>0.923</v>
+        <v>0.893</v>
       </c>
       <c r="E5">
         <v>0.792</v>
@@ -614,7 +614,7 @@
         <v>0.875</v>
       </c>
       <c r="D6">
-        <v>0.864</v>
+        <v>0.751</v>
       </c>
       <c r="E6">
         <v>0.539</v>
@@ -649,7 +649,7 @@
         <v>0.975</v>
       </c>
       <c r="D7">
-        <v>0.9320000000000001</v>
+        <v>0.899</v>
       </c>
       <c r="E7">
         <v>0.798</v>
@@ -684,7 +684,7 @@
         <v>0.955</v>
       </c>
       <c r="D8">
-        <v>0.921</v>
+        <v>0.879</v>
       </c>
       <c r="E8">
         <v>0.758</v>
@@ -719,7 +719,7 @@
         <v>0.979</v>
       </c>
       <c r="D9">
-        <v>0.922</v>
+        <v>0.892</v>
       </c>
       <c r="E9">
         <v>0.791</v>
